--- a/biology/Zoologie/Artamie_azurée/Artamie_azurée.xlsx
+++ b/biology/Zoologie/Artamie_azurée/Artamie_azurée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Artamie_azur%C3%A9e</t>
+          <t>Artamie_azurée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanolanius madagascarinus
 L'Artamie azurée (Cyanolanius madagascarinus (Linnaeus, 1766)) est la seule espèce de la famille des Vangidae présente en dehors de Madagascar puisqu'une des deux sous-espèces peuplent les Comores.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Artamie_azur%C3%A9e</t>
+          <t>Artamie_azurée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Artamie azurée est un assez petit Vangidae (environ 16 cm) au plumage contrasté, bleu outremer et blanc, ne pouvant être confondu avec aucune autre espèce.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Artamie_azur%C3%A9e</t>
+          <t>Artamie_azurée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Artamie azurée consomme des chenilles, des insectes (Coléoptères et Orthoptères) et occasionnellement des baies. Avec l'Artamie de Chabert, il s'agit du seul Vangidae dont une partie du régime alimentaire est constituée d'éléments d'origine végétale.
 </t>
